--- a/src/assets/Day-Ahead Demand Forecast format (from States).xlsx
+++ b/src/assets/Day-Ahead Demand Forecast format (from States).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Templates\Angular\Angular\material\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Demand forecast Portal\demand-forecast-upload-portal\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26A2F52-FDB2-46BC-A11A-938671D62C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2F1640-5E28-46DC-A614-222BF44A909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="20820" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="FF">'[2]ACTUAL GENERATION'!$X$11</definedName>
     <definedName name="Frequency">#REF!</definedName>
     <definedName name="od">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="134">
   <si>
     <t>Details for State:</t>
   </si>
@@ -75,9 +76,6 @@
     <t>MW</t>
   </si>
   <si>
-    <t>Day Ahead  forecast by State in respect of Demand, Availability and Shortages</t>
-  </si>
-  <si>
     <t>Forcasted Demand 
 (A)</t>
   </si>
@@ -442,6 +440,25 @@
   </si>
   <si>
     <t>23:45 - 00:00</t>
+  </si>
+  <si>
+    <t>Secondary UP Ancillary Reserve
+(SRAS UP)</t>
+  </si>
+  <si>
+    <t>Secondary DOWN Ancillary Reserve
+(SRAS DOWN)</t>
+  </si>
+  <si>
+    <t>Tertiary UP Ancillary Reserve
+(TRAS UP)</t>
+  </si>
+  <si>
+    <t>Tertiary DOWN Ancillary Reserve
+(TRAS DOWN)</t>
+  </si>
+  <si>
+    <t>Day Ahead  forecast by State in respect of Demand, Availability, Shortages and Reserves</t>
   </si>
 </sst>
 </file>
@@ -741,8 +758,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -752,6 +769,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -784,9 +804,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1427,30 +1444,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1751,68 +1744,68 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomRight" sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="9" width="10.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="22" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" style="1" customWidth="1"/>
-    <col min="20" max="21" width="18" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.109375" style="1"/>
+    <col min="19" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="25" width="18" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1832,14 +1825,18 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -1859,33 +1856,37 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="29"/>
+      <c r="Q4" s="30"/>
       <c r="R4" s="20" t="s">
         <v>5</v>
       </c>
@@ -1893,78 +1894,94 @@
         <v>6</v>
       </c>
       <c r="T4" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U4" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="6" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="6" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="20" t="s">
+      <c r="M5" s="20" t="s">
         <v>13</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>14</v>
       </c>
       <c r="N5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="20" t="s">
         <v>15</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>16</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
-    </row>
-    <row r="6" spans="1:21" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+    </row>
+    <row r="6" spans="1:25" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="22"/>
       <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
@@ -1976,8 +1993,12 @@
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
-    </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -2039,15 +2060,27 @@
         <v>10</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="9">
         <v>0</v>
@@ -2106,13 +2139,25 @@
       <c r="U8" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>2</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="9">
         <v>0</v>
@@ -2171,13 +2216,25 @@
       <c r="U9" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>3</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="9">
         <v>0</v>
@@ -2236,13 +2293,25 @@
       <c r="U10" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V10" s="9">
+        <v>0</v>
+      </c>
+      <c r="W10" s="9">
+        <v>0</v>
+      </c>
+      <c r="X10" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="9">
         <v>0</v>
@@ -2301,13 +2370,25 @@
       <c r="U11" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V11" s="9">
+        <v>0</v>
+      </c>
+      <c r="W11" s="9">
+        <v>0</v>
+      </c>
+      <c r="X11" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>5</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9">
         <v>0</v>
@@ -2366,13 +2447,25 @@
       <c r="U12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V12" s="9">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>0</v>
+      </c>
+      <c r="X12" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="9">
         <v>0</v>
@@ -2431,13 +2524,25 @@
       <c r="U13" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V13" s="9">
+        <v>0</v>
+      </c>
+      <c r="W13" s="9">
+        <v>0</v>
+      </c>
+      <c r="X13" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9">
         <v>0</v>
@@ -2496,13 +2601,25 @@
       <c r="U14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V14" s="9">
+        <v>0</v>
+      </c>
+      <c r="W14" s="9">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>8</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="9">
         <v>0</v>
@@ -2561,13 +2678,25 @@
       <c r="U15" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V15" s="9">
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>9</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -2626,13 +2755,25 @@
       <c r="U16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V16" s="9">
+        <v>0</v>
+      </c>
+      <c r="W16" s="9">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>10</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="9">
         <v>0</v>
@@ -2691,13 +2832,25 @@
       <c r="U17" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V17" s="9">
+        <v>0</v>
+      </c>
+      <c r="W17" s="9">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>11</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="9">
         <v>0</v>
@@ -2756,13 +2909,25 @@
       <c r="U18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V18" s="9">
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>12</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="9">
         <v>0</v>
@@ -2821,13 +2986,25 @@
       <c r="U19" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V19" s="9">
+        <v>0</v>
+      </c>
+      <c r="W19" s="9">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>13</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="9">
         <v>0</v>
@@ -2886,13 +3063,25 @@
       <c r="U20" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V20" s="9">
+        <v>0</v>
+      </c>
+      <c r="W20" s="9">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>14</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
@@ -2951,13 +3140,25 @@
       <c r="U21" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V21" s="9">
+        <v>0</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>15</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9">
         <v>0</v>
@@ -3016,13 +3217,25 @@
       <c r="U22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V22" s="9">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>16</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="9">
         <v>0</v>
@@ -3081,13 +3294,25 @@
       <c r="U23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V23" s="9">
+        <v>0</v>
+      </c>
+      <c r="W23" s="9">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>17</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
@@ -3146,13 +3371,25 @@
       <c r="U24" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V24" s="9">
+        <v>0</v>
+      </c>
+      <c r="W24" s="9">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>18</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="9">
         <v>0</v>
@@ -3211,13 +3448,25 @@
       <c r="U25" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V25" s="9">
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>19</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9">
         <v>0</v>
@@ -3276,13 +3525,25 @@
       <c r="U26" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>20</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="9">
         <v>0</v>
@@ -3341,13 +3602,25 @@
       <c r="U27" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V27" s="9">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>21</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="9">
         <v>0</v>
@@ -3406,13 +3679,25 @@
       <c r="U28" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V28" s="9">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>22</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C29" s="9">
         <v>0</v>
@@ -3471,13 +3756,25 @@
       <c r="U29" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V29" s="9">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>0</v>
+      </c>
+      <c r="X29" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>23</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="9">
         <v>0</v>
@@ -3536,13 +3833,25 @@
       <c r="U30" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V30" s="9">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>24</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="9">
         <v>0</v>
@@ -3601,13 +3910,25 @@
       <c r="U31" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V31" s="9">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>0</v>
+      </c>
+      <c r="X31" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>25</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="9">
         <v>0</v>
@@ -3666,13 +3987,25 @@
       <c r="U32" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V32" s="9">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9">
+        <v>0</v>
+      </c>
+      <c r="X32" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>26</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="9">
         <v>0</v>
@@ -3731,13 +4064,25 @@
       <c r="U33" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V33" s="9">
+        <v>0</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
         <v>27</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="9">
         <v>0</v>
@@ -3796,13 +4141,25 @@
       <c r="U34" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V34" s="9">
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>28</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="9">
         <v>0</v>
@@ -3861,13 +4218,25 @@
       <c r="U35" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V35" s="9">
+        <v>0</v>
+      </c>
+      <c r="W35" s="9">
+        <v>0</v>
+      </c>
+      <c r="X35" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>29</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
@@ -3926,13 +4295,25 @@
       <c r="U36" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V36" s="9">
+        <v>0</v>
+      </c>
+      <c r="W36" s="9">
+        <v>0</v>
+      </c>
+      <c r="X36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>30</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
@@ -3991,13 +4372,25 @@
       <c r="U37" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V37" s="9">
+        <v>0</v>
+      </c>
+      <c r="W37" s="9">
+        <v>0</v>
+      </c>
+      <c r="X37" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>31</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9">
         <v>0</v>
@@ -4056,13 +4449,25 @@
       <c r="U38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V38" s="9">
+        <v>0</v>
+      </c>
+      <c r="W38" s="9">
+        <v>0</v>
+      </c>
+      <c r="X38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>32</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="9">
         <v>0</v>
@@ -4121,13 +4526,25 @@
       <c r="U39" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V39" s="9">
+        <v>0</v>
+      </c>
+      <c r="W39" s="9">
+        <v>0</v>
+      </c>
+      <c r="X39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>33</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="9">
         <v>0</v>
@@ -4186,13 +4603,25 @@
       <c r="U40" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V40" s="9">
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>34</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C41" s="9">
         <v>0</v>
@@ -4251,13 +4680,25 @@
       <c r="U41" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V41" s="9">
+        <v>0</v>
+      </c>
+      <c r="W41" s="9">
+        <v>0</v>
+      </c>
+      <c r="X41" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>35</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="9">
         <v>0</v>
@@ -4316,13 +4757,25 @@
       <c r="U42" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V42" s="9">
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <v>0</v>
+      </c>
+      <c r="X42" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>36</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="9">
         <v>0</v>
@@ -4381,13 +4834,25 @@
       <c r="U43" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V43" s="9">
+        <v>0</v>
+      </c>
+      <c r="W43" s="9">
+        <v>0</v>
+      </c>
+      <c r="X43" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>37</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C44" s="9">
         <v>0</v>
@@ -4446,13 +4911,25 @@
       <c r="U44" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V44" s="9">
+        <v>0</v>
+      </c>
+      <c r="W44" s="9">
+        <v>0</v>
+      </c>
+      <c r="X44" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
         <v>38</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9">
         <v>0</v>
@@ -4511,13 +4988,25 @@
       <c r="U45" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V45" s="9">
+        <v>0</v>
+      </c>
+      <c r="W45" s="9">
+        <v>0</v>
+      </c>
+      <c r="X45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>39</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C46" s="9">
         <v>0</v>
@@ -4576,13 +5065,25 @@
       <c r="U46" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V46" s="9">
+        <v>0</v>
+      </c>
+      <c r="W46" s="9">
+        <v>0</v>
+      </c>
+      <c r="X46" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>40</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
@@ -4641,13 +5142,25 @@
       <c r="U47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V47" s="9">
+        <v>0</v>
+      </c>
+      <c r="W47" s="9">
+        <v>0</v>
+      </c>
+      <c r="X47" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>41</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" s="9">
         <v>0</v>
@@ -4706,13 +5219,25 @@
       <c r="U48" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V48" s="9">
+        <v>0</v>
+      </c>
+      <c r="W48" s="9">
+        <v>0</v>
+      </c>
+      <c r="X48" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>42</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" s="9">
         <v>0</v>
@@ -4771,13 +5296,25 @@
       <c r="U49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V49" s="9">
+        <v>0</v>
+      </c>
+      <c r="W49" s="9">
+        <v>0</v>
+      </c>
+      <c r="X49" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>43</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="9">
         <v>0</v>
@@ -4836,13 +5373,25 @@
       <c r="U50" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V50" s="9">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>0</v>
+      </c>
+      <c r="X50" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>44</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="9">
         <v>0</v>
@@ -4901,13 +5450,25 @@
       <c r="U51" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V51" s="9">
+        <v>0</v>
+      </c>
+      <c r="W51" s="9">
+        <v>0</v>
+      </c>
+      <c r="X51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>45</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="9">
         <v>0</v>
@@ -4966,13 +5527,25 @@
       <c r="U52" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V52" s="9">
+        <v>0</v>
+      </c>
+      <c r="W52" s="9">
+        <v>0</v>
+      </c>
+      <c r="X52" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>46</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="9">
         <v>0</v>
@@ -5031,13 +5604,25 @@
       <c r="U53" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V53" s="9">
+        <v>0</v>
+      </c>
+      <c r="W53" s="9">
+        <v>0</v>
+      </c>
+      <c r="X53" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>47</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="9">
         <v>0</v>
@@ -5096,13 +5681,25 @@
       <c r="U54" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V54" s="9">
+        <v>0</v>
+      </c>
+      <c r="W54" s="9">
+        <v>0</v>
+      </c>
+      <c r="X54" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>48</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="9">
         <v>0</v>
@@ -5161,13 +5758,25 @@
       <c r="U55" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V55" s="9">
+        <v>0</v>
+      </c>
+      <c r="W55" s="9">
+        <v>0</v>
+      </c>
+      <c r="X55" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>49</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="9">
         <v>0</v>
@@ -5226,13 +5835,25 @@
       <c r="U56" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V56" s="9">
+        <v>0</v>
+      </c>
+      <c r="W56" s="9">
+        <v>0</v>
+      </c>
+      <c r="X56" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>50</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="9">
         <v>0</v>
@@ -5291,13 +5912,25 @@
       <c r="U57" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V57" s="9">
+        <v>0</v>
+      </c>
+      <c r="W57" s="9">
+        <v>0</v>
+      </c>
+      <c r="X57" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>51</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="9">
         <v>0</v>
@@ -5356,13 +5989,25 @@
       <c r="U58" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V58" s="9">
+        <v>0</v>
+      </c>
+      <c r="W58" s="9">
+        <v>0</v>
+      </c>
+      <c r="X58" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A59" s="8">
         <v>52</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="9">
         <v>0</v>
@@ -5421,13 +6066,25 @@
       <c r="U59" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V59" s="9">
+        <v>0</v>
+      </c>
+      <c r="W59" s="9">
+        <v>0</v>
+      </c>
+      <c r="X59" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A60" s="8">
         <v>53</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60" s="9">
         <v>0</v>
@@ -5486,13 +6143,25 @@
       <c r="U60" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V60" s="9">
+        <v>0</v>
+      </c>
+      <c r="W60" s="9">
+        <v>0</v>
+      </c>
+      <c r="X60" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A61" s="8">
         <v>54</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="9">
         <v>0</v>
@@ -5551,13 +6220,25 @@
       <c r="U61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V61" s="9">
+        <v>0</v>
+      </c>
+      <c r="W61" s="9">
+        <v>0</v>
+      </c>
+      <c r="X61" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
         <v>55</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C62" s="9">
         <v>0</v>
@@ -5616,13 +6297,25 @@
       <c r="U62" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V62" s="9">
+        <v>0</v>
+      </c>
+      <c r="W62" s="9">
+        <v>0</v>
+      </c>
+      <c r="X62" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A63" s="8">
         <v>56</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="9">
         <v>0</v>
@@ -5681,13 +6374,25 @@
       <c r="U63" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V63" s="9">
+        <v>0</v>
+      </c>
+      <c r="W63" s="9">
+        <v>0</v>
+      </c>
+      <c r="X63" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A64" s="8">
         <v>57</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="9">
         <v>0</v>
@@ -5746,13 +6451,25 @@
       <c r="U64" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V64" s="9">
+        <v>0</v>
+      </c>
+      <c r="W64" s="9">
+        <v>0</v>
+      </c>
+      <c r="X64" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <v>58</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="9">
         <v>0</v>
@@ -5811,13 +6528,25 @@
       <c r="U65" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V65" s="9">
+        <v>0</v>
+      </c>
+      <c r="W65" s="9">
+        <v>0</v>
+      </c>
+      <c r="X65" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A66" s="8">
         <v>59</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
@@ -5876,13 +6605,25 @@
       <c r="U66" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V66" s="9">
+        <v>0</v>
+      </c>
+      <c r="W66" s="9">
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A67" s="8">
         <v>60</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="9">
         <v>0</v>
@@ -5941,13 +6682,25 @@
       <c r="U67" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V67" s="9">
+        <v>0</v>
+      </c>
+      <c r="W67" s="9">
+        <v>0</v>
+      </c>
+      <c r="X67" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A68" s="8">
         <v>61</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="9">
         <v>0</v>
@@ -6006,13 +6759,25 @@
       <c r="U68" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V68" s="9">
+        <v>0</v>
+      </c>
+      <c r="W68" s="9">
+        <v>0</v>
+      </c>
+      <c r="X68" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A69" s="8">
         <v>62</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="9">
         <v>0</v>
@@ -6071,13 +6836,25 @@
       <c r="U69" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V69" s="9">
+        <v>0</v>
+      </c>
+      <c r="W69" s="9">
+        <v>0</v>
+      </c>
+      <c r="X69" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A70" s="8">
         <v>63</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" s="9">
         <v>0</v>
@@ -6136,13 +6913,25 @@
       <c r="U70" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V70" s="9">
+        <v>0</v>
+      </c>
+      <c r="W70" s="9">
+        <v>0</v>
+      </c>
+      <c r="X70" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A71" s="8">
         <v>64</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="9">
         <v>0</v>
@@ -6201,13 +6990,25 @@
       <c r="U71" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V71" s="9">
+        <v>0</v>
+      </c>
+      <c r="W71" s="9">
+        <v>0</v>
+      </c>
+      <c r="X71" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A72" s="8">
         <v>65</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C72" s="9">
         <v>0</v>
@@ -6266,13 +7067,25 @@
       <c r="U72" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V72" s="9">
+        <v>0</v>
+      </c>
+      <c r="W72" s="9">
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A73" s="8">
         <v>66</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" s="9">
         <v>0</v>
@@ -6331,13 +7144,25 @@
       <c r="U73" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V73" s="9">
+        <v>0</v>
+      </c>
+      <c r="W73" s="9">
+        <v>0</v>
+      </c>
+      <c r="X73" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
         <v>67</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C74" s="9">
         <v>0</v>
@@ -6396,13 +7221,25 @@
       <c r="U74" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V74" s="9">
+        <v>0</v>
+      </c>
+      <c r="W74" s="9">
+        <v>0</v>
+      </c>
+      <c r="X74" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A75" s="8">
         <v>68</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C75" s="9">
         <v>0</v>
@@ -6461,13 +7298,25 @@
       <c r="U75" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V75" s="9">
+        <v>0</v>
+      </c>
+      <c r="W75" s="9">
+        <v>0</v>
+      </c>
+      <c r="X75" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
         <v>69</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" s="9">
         <v>0</v>
@@ -6526,13 +7375,25 @@
       <c r="U76" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V76" s="9">
+        <v>0</v>
+      </c>
+      <c r="W76" s="9">
+        <v>0</v>
+      </c>
+      <c r="X76" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A77" s="8">
         <v>70</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="9">
         <v>0</v>
@@ -6591,13 +7452,25 @@
       <c r="U77" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V77" s="9">
+        <v>0</v>
+      </c>
+      <c r="W77" s="9">
+        <v>0</v>
+      </c>
+      <c r="X77" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A78" s="8">
         <v>71</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="9">
         <v>0</v>
@@ -6656,13 +7529,25 @@
       <c r="U78" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V78" s="9">
+        <v>0</v>
+      </c>
+      <c r="W78" s="9">
+        <v>0</v>
+      </c>
+      <c r="X78" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A79" s="8">
         <v>72</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="9">
         <v>0</v>
@@ -6721,13 +7606,25 @@
       <c r="U79" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V79" s="9">
+        <v>0</v>
+      </c>
+      <c r="W79" s="9">
+        <v>0</v>
+      </c>
+      <c r="X79" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A80" s="8">
         <v>73</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="9">
         <v>0</v>
@@ -6786,13 +7683,25 @@
       <c r="U80" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V80" s="9">
+        <v>0</v>
+      </c>
+      <c r="W80" s="9">
+        <v>0</v>
+      </c>
+      <c r="X80" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A81" s="8">
         <v>74</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="9">
         <v>0</v>
@@ -6851,13 +7760,25 @@
       <c r="U81" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V81" s="9">
+        <v>0</v>
+      </c>
+      <c r="W81" s="9">
+        <v>0</v>
+      </c>
+      <c r="X81" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A82" s="8">
         <v>75</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="9">
         <v>0</v>
@@ -6916,13 +7837,25 @@
       <c r="U82" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V82" s="9">
+        <v>0</v>
+      </c>
+      <c r="W82" s="9">
+        <v>0</v>
+      </c>
+      <c r="X82" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A83" s="8">
         <v>76</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="9">
         <v>0</v>
@@ -6981,13 +7914,25 @@
       <c r="U83" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V83" s="9">
+        <v>0</v>
+      </c>
+      <c r="W83" s="9">
+        <v>0</v>
+      </c>
+      <c r="X83" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A84" s="8">
         <v>77</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="9">
         <v>0</v>
@@ -7046,13 +7991,25 @@
       <c r="U84" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V84" s="9">
+        <v>0</v>
+      </c>
+      <c r="W84" s="9">
+        <v>0</v>
+      </c>
+      <c r="X84" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A85" s="8">
         <v>78</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="9">
         <v>0</v>
@@ -7111,13 +8068,25 @@
       <c r="U85" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V85" s="9">
+        <v>0</v>
+      </c>
+      <c r="W85" s="9">
+        <v>0</v>
+      </c>
+      <c r="X85" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A86" s="8">
         <v>79</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C86" s="9">
         <v>0</v>
@@ -7176,13 +8145,25 @@
       <c r="U86" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V86" s="9">
+        <v>0</v>
+      </c>
+      <c r="W86" s="9">
+        <v>0</v>
+      </c>
+      <c r="X86" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A87" s="8">
         <v>80</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="9">
         <v>0</v>
@@ -7241,13 +8222,25 @@
       <c r="U87" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V87" s="9">
+        <v>0</v>
+      </c>
+      <c r="W87" s="9">
+        <v>0</v>
+      </c>
+      <c r="X87" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>81</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C88" s="9">
         <v>0</v>
@@ -7306,13 +8299,25 @@
       <c r="U88" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V88" s="9">
+        <v>0</v>
+      </c>
+      <c r="W88" s="9">
+        <v>0</v>
+      </c>
+      <c r="X88" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>82</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C89" s="9">
         <v>0</v>
@@ -7371,13 +8376,25 @@
       <c r="U89" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V89" s="9">
+        <v>0</v>
+      </c>
+      <c r="W89" s="9">
+        <v>0</v>
+      </c>
+      <c r="X89" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>83</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C90" s="9">
         <v>0</v>
@@ -7436,13 +8453,25 @@
       <c r="U90" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V90" s="9">
+        <v>0</v>
+      </c>
+      <c r="W90" s="9">
+        <v>0</v>
+      </c>
+      <c r="X90" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>84</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C91" s="9">
         <v>0</v>
@@ -7501,13 +8530,25 @@
       <c r="U91" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V91" s="9">
+        <v>0</v>
+      </c>
+      <c r="W91" s="9">
+        <v>0</v>
+      </c>
+      <c r="X91" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>85</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C92" s="9">
         <v>0</v>
@@ -7566,13 +8607,25 @@
       <c r="U92" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V92" s="9">
+        <v>0</v>
+      </c>
+      <c r="W92" s="9">
+        <v>0</v>
+      </c>
+      <c r="X92" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>86</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C93" s="9">
         <v>0</v>
@@ -7631,13 +8684,25 @@
       <c r="U93" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V93" s="9">
+        <v>0</v>
+      </c>
+      <c r="W93" s="9">
+        <v>0</v>
+      </c>
+      <c r="X93" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>87</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C94" s="9">
         <v>0</v>
@@ -7696,13 +8761,25 @@
       <c r="U94" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V94" s="9">
+        <v>0</v>
+      </c>
+      <c r="W94" s="9">
+        <v>0</v>
+      </c>
+      <c r="X94" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>88</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C95" s="9">
         <v>0</v>
@@ -7761,13 +8838,25 @@
       <c r="U95" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V95" s="9">
+        <v>0</v>
+      </c>
+      <c r="W95" s="9">
+        <v>0</v>
+      </c>
+      <c r="X95" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>89</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C96" s="9">
         <v>0</v>
@@ -7826,13 +8915,25 @@
       <c r="U96" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V96" s="9">
+        <v>0</v>
+      </c>
+      <c r="W96" s="9">
+        <v>0</v>
+      </c>
+      <c r="X96" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>90</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C97" s="9">
         <v>0</v>
@@ -7891,13 +8992,25 @@
       <c r="U97" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V97" s="9">
+        <v>0</v>
+      </c>
+      <c r="W97" s="9">
+        <v>0</v>
+      </c>
+      <c r="X97" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>91</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C98" s="9">
         <v>0</v>
@@ -7956,13 +9069,25 @@
       <c r="U98" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V98" s="9">
+        <v>0</v>
+      </c>
+      <c r="W98" s="9">
+        <v>0</v>
+      </c>
+      <c r="X98" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>92</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="9">
         <v>0</v>
@@ -8021,13 +9146,25 @@
       <c r="U99" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V99" s="9">
+        <v>0</v>
+      </c>
+      <c r="W99" s="9">
+        <v>0</v>
+      </c>
+      <c r="X99" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>93</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C100" s="9">
         <v>0</v>
@@ -8086,13 +9223,25 @@
       <c r="U100" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V100" s="9">
+        <v>0</v>
+      </c>
+      <c r="W100" s="9">
+        <v>0</v>
+      </c>
+      <c r="X100" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A101" s="8">
         <v>94</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="9">
         <v>0</v>
@@ -8151,13 +9300,25 @@
       <c r="U101" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V101" s="9">
+        <v>0</v>
+      </c>
+      <c r="W101" s="9">
+        <v>0</v>
+      </c>
+      <c r="X101" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A102" s="8">
         <v>95</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C102" s="9">
         <v>0</v>
@@ -8216,13 +9377,25 @@
       <c r="U102" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="V102" s="9">
+        <v>0</v>
+      </c>
+      <c r="W102" s="9">
+        <v>0</v>
+      </c>
+      <c r="X102" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A103" s="8">
         <v>96</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C103" s="9">
         <v>0</v>
@@ -8281,12 +9454,24 @@
       <c r="U103" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B104" s="19"/>
+      <c r="V103" s="9">
+        <v>0</v>
+      </c>
+      <c r="W103" s="9">
+        <v>0</v>
+      </c>
+      <c r="X103" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" s="12" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104" s="23"/>
       <c r="C104" s="9">
         <v>0</v>
       </c>
@@ -8308,9 +9493,19 @@
       <c r="S104" s="11"/>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="11"/>
+      <c r="Y104" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="X4:X6"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="R4:R6"/>
     <mergeCell ref="S4:S6"/>
@@ -8327,11 +9522,9 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="O4:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="31" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>